--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1965401.802548283</v>
+        <v>1962857.9930412</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.02627191808414</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842815</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>69.31041572196729</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.9676003338656</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="G5" t="n">
-        <v>15.62903715749017</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3170492634408</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3878390606662</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>375.2093054718014</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.8244010340263</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908811</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.24979976115222</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256392</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>110.8759451195307</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247907167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182137</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754341</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>13.7423837587787</v>
+        <v>19.91555826188888</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760265</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>152.8697920431064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.4745767553153</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633182675</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217482</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986245</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358665</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593575</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060381</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.4202677165019</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>560.79792428368</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>294.4202677165019</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>671.4952208241846</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>497.0421915430576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>348.1077818818063</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>188.8703268763508</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>42.33576890323579</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>42.33576890323579</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>42.33576890323579</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442525</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442525</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>839.7105578442525</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>839.7105578442525</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>839.7105578442525</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>839.7105578442525</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
         <v>175.0184834666425</v>
@@ -4489,13 +4489,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>984.8449990747447</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>984.8449990747447</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>984.8449990747447</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>984.8449990747447</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>718.4673425075667</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.4777916095494</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.1106626298172</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>686.1106626298172</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D5" t="n">
-        <v>419.7330060626392</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>419.7330060626392</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>153.3553494954612</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298172</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>686.1106626298172</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>686.1106626298172</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1106626298172</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.518372282384</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>131.518372282384</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>131.518372282384</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>131.518372282384</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4659,7 +4659,7 @@
         <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.0733899644773</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>606.0733899644773</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>606.0733899644773</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>458.1602963820842</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>311.2703488841738</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>142.7009882391773</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080074</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644773</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.212926598235</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.250409657823</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.984711051073</v>
+        <v>926.0816186986465</v>
       </c>
       <c r="E8" t="n">
-        <v>841.1964584528282</v>
+        <v>540.2933661004023</v>
       </c>
       <c r="F8" t="n">
-        <v>430.2105536632207</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685558</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685558</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607441</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045915</v>
+        <v>795.1862829045961</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995232</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209591</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940604</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2540.564622661174</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342779</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342779</v>
+        <v>2227.07793185842</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868349</v>
+        <v>2227.07793185842</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.981581868349</v>
+        <v>2227.07793185842</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.212926598235</v>
+        <v>1874.309276588306</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.212926598235</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.212926598235</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010886</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199616</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587104</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.4887579637194</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148174</v>
+        <v>559.9063389572722</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482983</v>
+        <v>854.4423223907545</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287026</v>
+        <v>1217.508790865057</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471864</v>
+        <v>1851.248074049898</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459253</v>
+        <v>2183.134884037288</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888877</v>
+        <v>2430.170242466914</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442622</v>
+        <v>2545.387641020659</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251709</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685358</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751588</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519845</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791643</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586111</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821157</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.2409882015844</v>
+        <v>367.0373856326731</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015844</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892487</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685558</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380129</v>
+        <v>76.63468308380195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368934</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412624</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1336.515802634458</v>
       </c>
       <c r="T10" t="n">
-        <v>1523.773241316219</v>
+        <v>1113.534501108863</v>
       </c>
       <c r="U10" t="n">
-        <v>1523.773241316219</v>
+        <v>1092.787508705761</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.088753110332</v>
+        <v>838.1030204998735</v>
       </c>
       <c r="W10" t="n">
-        <v>979.6715830733716</v>
+        <v>548.6858504629129</v>
       </c>
       <c r="X10" t="n">
-        <v>751.6820321753543</v>
+        <v>548.6858504629129</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.8894530318241</v>
+        <v>548.6858504629129</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>545.3854261579739</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>397.4723325755808</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>564.518882789225</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D16" t="n">
-        <v>564.518882789225</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6057892068319</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,52 +5495,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179072</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900003</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>443.4949469776645</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952714</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459568</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180499</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180499</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356568</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761965</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>719.5738700011906</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>901.2223348314303</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,25 +7421,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127244</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004314</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538071</v>
+        <v>249.1463441538092</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917611</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538783</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124958</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.6786642641526</v>
+        <v>125.5054897610424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532861</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>99.26785128072157</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761595</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604421</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143944</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685081</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405012</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405011</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830046</v>
@@ -26326,28 +26326,28 @@
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>390680.0076580815</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.2320606908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101735</v>
+        <v>95270.23779101831</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608934</v>
+        <v>138058.0537608924</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26445,13 +26445,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768967</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="N4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768912</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26473,7 +26473,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567918</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417844.5112211649</v>
+        <v>-417844.5112211652</v>
       </c>
       <c r="C6" t="n">
         <v>262243.4693700281</v>
       </c>
       <c r="D6" t="n">
-        <v>-46911.6900896517</v>
+        <v>-46911.69008965438</v>
       </c>
       <c r="E6" t="n">
-        <v>-53976.28642336588</v>
+        <v>-54011.02434879783</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373283</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373287</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373286</v>
+        <v>453898.207711893</v>
       </c>
       <c r="J6" t="n">
-        <v>384933.7912182144</v>
+        <v>384899.0532927788</v>
       </c>
       <c r="K6" t="n">
-        <v>453932.9456373286</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="L6" t="n">
-        <v>358662.707846311</v>
+        <v>358627.9699208745</v>
       </c>
       <c r="M6" t="n">
-        <v>321214.9699418591</v>
+        <v>321180.2320164246</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118926</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118927</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>933.702459562785</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856947</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>319.6474457933066</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778892</v>
+        <v>434.2730407788888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841885</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841885</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139497</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841885</v>
+        <v>376.4268100841922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139539</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>68.11956169855989</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>144.327960914854</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>22.89553208342145</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788762</v>
       </c>
     </row>
     <row r="4">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.4087485216265</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688119</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.2051374882198</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>35.75216312994307</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>31.99432027519059</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>36.33985431644811</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.9066996444428</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164519875</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164534625</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>109.8755433908081</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.28628465436411e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885565</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359954</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>669.7602577525091</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.4356192307907</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542138</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.5346524514049</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026286</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152225</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>477.8354464519094</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947598</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.095024154133954</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490129</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.70643221307431</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.194100917942767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09183958618650354</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>349.3304751113902</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -35027,10 +35027,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250135</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313395</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.7491718087227</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.3471941559182</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.337407809104</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.20013907234343</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>62.90656844127628</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758575</v>
+        <v>450.9268494884371</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772548</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401292</v>
+        <v>366.7338065396994</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856947</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603492</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783562</v>
+        <v>15.32840335569129</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.68023017873341</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>211.4890361370312</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
